--- a/doc/Meilensteine_Fallstudie.xlsx
+++ b/doc/Meilensteine_Fallstudie.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <workbookPr codeName="ThisWorkbook" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="Projektzeitachse" sheetId="1" r:id="rId1"/>
@@ -706,33 +706,6 @@
   <dxfs count="24">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF99D709"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -957,6 +930,33 @@
         </patternFill>
       </fill>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF99D709"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1560,8 +1560,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="20"/>
-        <c:axId val="-2124665336"/>
-        <c:axId val="-2124668296"/>
+        <c:axId val="2105179432"/>
+        <c:axId val="2105176472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1708,11 +1708,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124675128"/>
-        <c:axId val="-2124671384"/>
+        <c:axId val="2105169672"/>
+        <c:axId val="2105173384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2124675128"/>
+        <c:axId val="2105169672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1755,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2124671384"/>
+        <c:crossAx val="2105173384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1766,7 +1766,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2124671384"/>
+        <c:axId val="2105173384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,12 +1776,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124675128"/>
+        <c:crossAx val="2105169672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124668296"/>
+        <c:axId val="2105176472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,12 +1791,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124665336"/>
+        <c:crossAx val="2105179432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2124665336"/>
+        <c:axId val="2105179432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +1806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124668296"/>
+        <c:crossAx val="2105176472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2135,17 +2135,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projektdetails" displayName="Projektdetails" ref="B28:I43" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Projektdetails" displayName="Projektdetails" ref="B28:I43" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B28:I43"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="DATUM" dataDxfId="12"/>
-    <tableColumn id="2" name="MEILENSTEIN" dataDxfId="11"/>
-    <tableColumn id="3" name="Detail" dataDxfId="10"/>
-    <tableColumn id="13" name="Verantwortlich" dataDxfId="9"/>
-    <tableColumn id="12" name="Status" dataDxfId="8"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="7"/>
-    <tableColumn id="4" name="POSITION" dataDxfId="6"/>
-    <tableColumn id="5" name="BASISLINIE" dataDxfId="5"/>
+    <tableColumn id="1" name="DATUM" dataDxfId="7"/>
+    <tableColumn id="2" name="MEILENSTEIN" dataDxfId="6"/>
+    <tableColumn id="3" name="Detail" dataDxfId="5"/>
+    <tableColumn id="13" name="Verantwortlich" dataDxfId="4"/>
+    <tableColumn id="12" name="Status" dataDxfId="3"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="2"/>
+    <tableColumn id="4" name="POSITION" dataDxfId="1"/>
+    <tableColumn id="5" name="BASISLINIE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3114,25 +3114,25 @@
   </mergeCells>
   <phoneticPr fontId="28" type="noConversion"/>
   <conditionalFormatting sqref="B29:I43">
-    <cfRule type="expression" dxfId="4" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>INT(ROW()/2)=ROW()/2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F43">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>$F30=$F$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F43">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$F29=$F$26</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>$F29=$F$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$F29=$F$24</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/Meilensteine_Fallstudie.xlsx
+++ b/doc/Meilensteine_Fallstudie.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>Projektende</t>
   </si>
@@ -65,15 +65,6 @@
   </si>
   <si>
     <t>Detail</t>
-  </si>
-  <si>
-    <t>Detailbeschreibung 1</t>
-  </si>
-  <si>
-    <t>Detailbeschreibung 2</t>
-  </si>
-  <si>
-    <t>Detailbeschreibung 3</t>
   </si>
   <si>
     <t>© Copyright by MeineVorlagen – www.MeineVorlagen.com - Alle Rechte vorbehalten</t>
@@ -176,22 +167,40 @@
     <t>Korrekturlesen, Druck, Bindung</t>
   </si>
   <si>
-    <t>Aufteilung, Probe-Vortrag</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Projekt: Systemanalyse/Fallstudie - "Watch Tycoon 2017"</t>
   </si>
   <si>
     <t xml:space="preserve">   Erstellung eines computergestützten Planspiels </t>
   </si>
   <si>
-    <t>Meilenstein 6</t>
-  </si>
-  <si>
-    <t>Meilenstein 7</t>
-  </si>
-  <si>
-    <t>Meilenstein 8</t>
+    <t>Aufteilung</t>
+  </si>
+  <si>
+    <t>Aufteilung Aufgaben</t>
+  </si>
+  <si>
+    <t>Alle Funktionen implementiert, Erstellung Junit Tests</t>
+  </si>
+  <si>
+    <t>Erstellung 1. Mock-Up, Entscheidung Layout</t>
+  </si>
+  <si>
+    <t>Ausarbeitung Abteilungen/Unternehmensfunktionen, Start der Programmierung</t>
+  </si>
+  <si>
+    <t>Programmierarbeit, Schreibarbeit</t>
+  </si>
+  <si>
+    <t>Meilenstein 3a</t>
+  </si>
+  <si>
+    <t>Meilenstein 3b</t>
+  </si>
+  <si>
+    <t>Meilenstein 3c</t>
+  </si>
+  <si>
+    <t>Lauffähiges Spiel, "Probespielen", Schreibarbeit, Verfeinerung, Bug-Beseitigung</t>
   </si>
 </sst>
 </file>
@@ -1475,19 +1484,19 @@
                   <c:v>Meilenstein 3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Meilenstein 3a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Meilenstein 3b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Meilenstein 3c</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Meilenstein 4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>Meilenstein 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Meilenstein 6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Meilenstein 7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Meilenstein 8</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Fertigstellung Dokumentation</c:v>
@@ -1560,8 +1569,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="20"/>
-        <c:axId val="2105179432"/>
-        <c:axId val="2105176472"/>
+        <c:axId val="2120106392"/>
+        <c:axId val="2120103432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1640,10 +1649,10 @@
                   <c:v>43031.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43038.0</c:v>
+                  <c:v>43050.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43045.0</c:v>
+                  <c:v>43051.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43052.0</c:v>
@@ -1708,11 +1717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2105169672"/>
-        <c:axId val="2105173384"/>
+        <c:axId val="2120096776"/>
+        <c:axId val="2120100344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2105169672"/>
+        <c:axId val="2120096776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +1764,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105173384"/>
+        <c:crossAx val="2120100344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1766,7 +1775,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2105173384"/>
+        <c:axId val="2120100344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1776,12 +1785,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105169672"/>
+        <c:crossAx val="2120096776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2105176472"/>
+        <c:axId val="2120103432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1791,12 +1800,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105179432"/>
+        <c:crossAx val="2120106392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2105179432"/>
+        <c:axId val="2120106392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +1815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105176472"/>
+        <c:crossAx val="2120103432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2389,8 +2398,8 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -2416,7 +2425,7 @@
     <row r="1" spans="1:16" ht="24" customHeight="1"/>
     <row r="2" spans="1:16" ht="20.25" customHeight="1">
       <c r="B2" s="49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -2448,7 +2457,7 @@
     <row r="4" spans="1:16" s="7" customFormat="1" ht="30.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2471,7 +2480,7 @@
     <row r="5" spans="1:16" s="7" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -2486,7 +2495,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="6"/>
       <c r="I5" s="43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -2512,7 +2521,7 @@
     <row r="7" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="H7" s="6"/>
       <c r="I7" s="45" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -2522,7 +2531,7 @@
     <row r="8" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="H8" s="6"/>
       <c r="I8" s="45" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2532,7 +2541,7 @@
     <row r="9" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="H9" s="6"/>
       <c r="I9" s="45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -2542,7 +2551,7 @@
     <row r="10" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="H10" s="6"/>
       <c r="I10" s="45" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -2552,7 +2561,7 @@
     <row r="11" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="H11" s="6"/>
       <c r="I11" s="45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2562,7 +2571,7 @@
     <row r="12" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="H12" s="6"/>
       <c r="I12" s="45" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -2572,7 +2581,7 @@
     <row r="13" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="H13" s="6"/>
       <c r="I13" s="45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -2582,7 +2591,7 @@
     <row r="14" spans="1:16" s="7" customFormat="1" ht="19.5" customHeight="1">
       <c r="H14" s="6"/>
       <c r="I14" s="45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -2684,10 +2693,10 @@
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
@@ -2702,10 +2711,10 @@
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
@@ -2720,10 +2729,10 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G26" s="17"/>
       <c r="H26" s="18"/>
@@ -2759,13 +2768,13 @@
         <v>12</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H28" s="26" t="s">
         <v>8</v>
@@ -2786,13 +2795,11 @@
         <v>1</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>27</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E29" s="40"/>
       <c r="F29" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G29" s="32"/>
       <c r="H29" s="33">
@@ -2813,11 +2820,11 @@
         <v>11</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E30" s="40"/>
       <c r="F30" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="33">
@@ -2839,11 +2846,11 @@
         <v>2</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E31" s="40"/>
       <c r="F31" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="33">
@@ -2864,11 +2871,11 @@
         <v>3</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="33">
@@ -2886,14 +2893,14 @@
         <v>43003</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="33">
@@ -2911,14 +2918,14 @@
         <v>43010</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G34" s="32"/>
       <c r="H34" s="33">
@@ -2936,12 +2943,14 @@
         <v>43017</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="32"/>
+        <v>47</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>44</v>
+      </c>
       <c r="E35" s="40"/>
       <c r="F35" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="36">
@@ -2959,12 +2968,14 @@
         <v>43024</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="32"/>
+        <v>4</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>41</v>
+      </c>
       <c r="E36" s="40"/>
       <c r="F36" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G36" s="32"/>
       <c r="H36" s="33">
@@ -2979,14 +2990,14 @@
         <v>43031</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="40" t="s">
-        <v>27</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="40"/>
       <c r="F37" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G37" s="32"/>
       <c r="H37" s="33">
@@ -2998,19 +3009,17 @@
     </row>
     <row r="38" spans="2:13" s="7" customFormat="1" ht="25" customHeight="1">
       <c r="B38" s="31">
-        <v>43038</v>
+        <v>43050</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>27</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E38" s="40"/>
       <c r="F38" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G38" s="32"/>
       <c r="H38" s="33">
@@ -3022,19 +3031,17 @@
     </row>
     <row r="39" spans="2:13" s="7" customFormat="1" ht="25" customHeight="1">
       <c r="B39" s="31">
-        <v>43045</v>
+        <v>43051</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>27</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E39" s="40"/>
       <c r="F39" s="42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="36">
@@ -3052,10 +3059,12 @@
         <v>0</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E40" s="40"/>
-      <c r="F40" s="42"/>
+      <c r="F40" s="42" t="s">
+        <v>21</v>
+      </c>
       <c r="G40" s="32"/>
       <c r="H40" s="36">
         <v>15</v>
@@ -3097,7 +3106,7 @@
     <row r="44" spans="2:13" ht="34.5" customHeight="1">
       <c r="B44" s="37"/>
       <c r="C44" s="50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D44" s="50"/>
       <c r="E44" s="50"/>
